--- a/invoice_system_management/static/excel/allInvoices.xlsx
+++ b/invoice_system_management/static/excel/allInvoices.xlsx
@@ -16,9 +16,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +57,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,13 +429,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="16" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -486,22 +497,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>45436</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>45439</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ishaan</t>
+          <t>ravi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>82727293729</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>111111111111</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>Cycle</t>
@@ -511,43 +521,10 @@
         <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>45436</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>kanishk</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>71371922</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>bike</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>200</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>200</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>
